--- a/experiments/11_sched_method_comparison_6/power2.xlsx
+++ b/experiments/11_sched_method_comparison_6/power2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_TEMP2\DP\experiments\11_sched_method_comparison_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C00ABC-2284-4EE9-90A4-3D34254E8F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA6529F-C27D-467B-AD10-5073D95E0414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4AA14060-357B-4D48-902E-23F5DC5705A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4AA14060-357B-4D48-902E-23F5DC5705A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$N</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -812,9 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2F75DE-CD0B-4E9B-BAA2-E82586CBED1C}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -894,7 +892,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="8"/>
       <c r="L5" s="29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M5" s="30"/>
       <c r="N5" s="9"/>
@@ -1268,7 +1266,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="8"/>
       <c r="L19" s="29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M19" s="30"/>
       <c r="N19" s="9"/>
@@ -1642,7 +1640,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="8"/>
       <c r="L33" s="29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M33" s="30"/>
       <c r="N33" s="9"/>
@@ -2016,7 +2014,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="8"/>
       <c r="L47" s="29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M47" s="30"/>
       <c r="N47" s="9"/>
@@ -2389,7 +2387,7 @@
       <c r="J61" s="6"/>
       <c r="K61" s="8"/>
       <c r="L61" s="29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M61" s="30"/>
       <c r="N61" s="9"/>
@@ -2762,7 +2760,7 @@
       <c r="J75" s="6"/>
       <c r="K75" s="8"/>
       <c r="L75" s="29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M75" s="30"/>
       <c r="N75" s="9"/>
